--- a/ESPN sports website/IPL/Kolkata Knight Riders/Sheldon Jackson †.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Sheldon Jackson †.xlsx
@@ -515,7 +515,7 @@
         <v>Sheldon Jackson †</v>
       </c>
       <c r="C4" t="str">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="str">
         <v>7</v>
@@ -524,22 +524,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>100.00</v>
+        <v>71.42</v>
       </c>
       <c r="H4" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>April 15, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Sunrisers won by 7 wickets (with 13 balls remaining)</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         <v>Sheldon Jackson †</v>
       </c>
       <c r="C5" t="str">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="str">
         <v>7</v>
@@ -559,22 +559,22 @@
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>71.42</v>
+        <v>100.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Mumbai Indians</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I5" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J5" t="str">
-        <v>May 09, 2022</v>
+        <v>April 15, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>Sunrisers won by 7 wickets (with 13 balls remaining)</v>
       </c>
     </row>
     <row r="6">
